--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna4-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna4-Epha5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,12 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Efna4</t>
@@ -452,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,78 +534,78 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.973732</v>
+        <v>0.595027</v>
       </c>
       <c r="H2">
-        <v>3.947464</v>
+        <v>1.190054</v>
       </c>
       <c r="I2">
-        <v>0.4893579329828272</v>
+        <v>0.3721518773584837</v>
       </c>
       <c r="J2">
-        <v>0.4031433519344368</v>
+        <v>0.3173844652954502</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.331827</v>
+        <v>0.006466</v>
       </c>
       <c r="N2">
-        <v>0.663654</v>
+        <v>0.012932</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.008493427970384656</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.008493427970384656</v>
       </c>
       <c r="Q2">
-        <v>0.654937568364</v>
+        <v>0.003847444582</v>
       </c>
       <c r="R2">
-        <v>2.619750273456</v>
+        <v>0.015389778328</v>
       </c>
       <c r="S2">
-        <v>0.4893579329828272</v>
+        <v>0.003160845164387706</v>
       </c>
       <c r="T2">
-        <v>0.4031433519344368</v>
+        <v>0.002695682094905955</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5518016666666666</v>
+        <v>0.595027</v>
       </c>
       <c r="H3">
-        <v>1.655405</v>
+        <v>1.190054</v>
       </c>
       <c r="I3">
-        <v>0.1368111390079702</v>
+        <v>0.3721518773584837</v>
       </c>
       <c r="J3">
-        <v>0.1690618383116417</v>
+        <v>0.3173844652954502</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,101 +614,101 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.331827</v>
+        <v>0.7548284999999999</v>
       </c>
       <c r="N3">
-        <v>0.663654</v>
+        <v>1.509657</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9915065720296153</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9915065720296153</v>
       </c>
       <c r="Q3">
-        <v>0.183102691645</v>
+        <v>0.4491433378694999</v>
       </c>
       <c r="R3">
-        <v>1.09861614987</v>
+        <v>1.796573351478</v>
       </c>
       <c r="S3">
-        <v>0.1368111390079702</v>
+        <v>0.368991032194096</v>
       </c>
       <c r="T3">
-        <v>0.1690618383116417</v>
+        <v>0.3146887832005443</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.5518016666666666</v>
+      </c>
+      <c r="H4">
+        <v>1.655405</v>
+      </c>
+      <c r="I4">
+        <v>0.3451171563299485</v>
+      </c>
+      <c r="J4">
+        <v>0.441492428723751</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.5</v>
       </c>
-      <c r="G4">
-        <v>0.3344835</v>
-      </c>
-      <c r="H4">
-        <v>0.668967</v>
-      </c>
-      <c r="I4">
-        <v>0.08293028343101366</v>
-      </c>
-      <c r="J4">
-        <v>0.06831971075949632</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.331827</v>
+        <v>0.006466</v>
       </c>
       <c r="N4">
-        <v>0.663654</v>
+        <v>0.012932</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.008493427970384656</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.008493427970384656</v>
       </c>
       <c r="Q4">
-        <v>0.1109906563545</v>
+        <v>0.003567949576666667</v>
       </c>
       <c r="R4">
-        <v>0.443962625418</v>
+        <v>0.02140769746</v>
       </c>
       <c r="S4">
-        <v>0.08293028343101366</v>
+        <v>0.002931227708632398</v>
       </c>
       <c r="T4">
-        <v>0.06831971075949632</v>
+        <v>0.003749784142835361</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9905496666666666</v>
+        <v>0.5518016666666666</v>
       </c>
       <c r="H5">
-        <v>2.971649</v>
+        <v>1.655405</v>
       </c>
       <c r="I5">
-        <v>0.2455922776733763</v>
+        <v>0.3451171563299485</v>
       </c>
       <c r="J5">
-        <v>0.3034861213763108</v>
+        <v>0.441492428723751</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,90 +738,152 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.331827</v>
+        <v>0.7548284999999999</v>
       </c>
       <c r="N5">
-        <v>0.663654</v>
+        <v>1.509657</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9915065720296153</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9915065720296153</v>
       </c>
       <c r="Q5">
-        <v>0.3286911242409999</v>
+        <v>0.4165156243474999</v>
       </c>
       <c r="R5">
-        <v>1.972146745446</v>
+        <v>2.499093746085</v>
       </c>
       <c r="S5">
-        <v>0.2455922776733763</v>
+        <v>0.3421859286213161</v>
       </c>
       <c r="T5">
-        <v>0.3034861213763108</v>
+        <v>0.4377426445809156</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.4520535</v>
+      </c>
+      <c r="H6">
+        <v>0.904107</v>
+      </c>
+      <c r="I6">
+        <v>0.2827309663115679</v>
+      </c>
+      <c r="J6">
+        <v>0.2411231059807989</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.006466</v>
+      </c>
+      <c r="N6">
+        <v>0.012932</v>
+      </c>
+      <c r="O6">
+        <v>0.008493427970384656</v>
+      </c>
+      <c r="P6">
+        <v>0.008493427970384656</v>
+      </c>
+      <c r="Q6">
+        <v>0.002922977931</v>
+      </c>
+      <c r="R6">
+        <v>0.011691911724</v>
+      </c>
+      <c r="S6">
+        <v>0.002401355097364553</v>
+      </c>
+      <c r="T6">
+        <v>0.002047961732643341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.1827426666666666</v>
-      </c>
-      <c r="H6">
-        <v>0.5482279999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.0453083669048127</v>
-      </c>
-      <c r="J6">
-        <v>0.05598897761811442</v>
-      </c>
-      <c r="K6">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.331827</v>
-      </c>
-      <c r="N6">
-        <v>0.663654</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0.06063895085199999</v>
-      </c>
-      <c r="R6">
-        <v>0.3638337051119999</v>
-      </c>
-      <c r="S6">
-        <v>0.0453083669048127</v>
-      </c>
-      <c r="T6">
-        <v>0.05598897761811442</v>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.4520535</v>
+      </c>
+      <c r="H7">
+        <v>0.904107</v>
+      </c>
+      <c r="I7">
+        <v>0.2827309663115679</v>
+      </c>
+      <c r="J7">
+        <v>0.2411231059807989</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7548284999999999</v>
+      </c>
+      <c r="N7">
+        <v>1.509657</v>
+      </c>
+      <c r="O7">
+        <v>0.9915065720296153</v>
+      </c>
+      <c r="P7">
+        <v>0.9915065720296153</v>
+      </c>
+      <c r="Q7">
+        <v>0.3412228653247499</v>
+      </c>
+      <c r="R7">
+        <v>1.364891461299</v>
+      </c>
+      <c r="S7">
+        <v>0.2803296112142034</v>
+      </c>
+      <c r="T7">
+        <v>0.2390751442481555</v>
       </c>
     </row>
   </sheetData>
